--- a/AMS_Feature.xlsx
+++ b/AMS_Feature.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feature" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Objects</t>
   </si>
@@ -24,144 +24,21 @@
     <t>Features</t>
   </si>
   <si>
-    <t>Wallet</t>
-  </si>
-  <si>
-    <t>Create an wallet</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Create an user</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Authen</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>GetProfile</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Get user by id</t>
-  </si>
-  <si>
-    <t>Update user by id</t>
-  </si>
-  <si>
-    <t>Delete user</t>
-  </si>
-  <si>
-    <t>Change pass</t>
-  </si>
-  <si>
-    <t>List all user paging</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Create an role</t>
-  </si>
-  <si>
-    <t>Get role by userid</t>
-  </si>
-  <si>
-    <t>Update role by id</t>
-  </si>
-  <si>
-    <t>Get role by id</t>
-  </si>
-  <si>
-    <t>delete role</t>
-  </si>
-  <si>
-    <t>List all role paging</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>Create an session</t>
-  </si>
-  <si>
-    <t>Remove session</t>
-  </si>
-  <si>
-    <t>When user login successed full</t>
-  </si>
-  <si>
-    <t>When user logout</t>
-  </si>
-  <si>
-    <t>Get wallet by name</t>
-  </si>
-  <si>
     <t>Processing</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Update wallet by name</t>
-  </si>
-  <si>
-    <t>Add address to wallet</t>
-  </si>
-  <si>
-    <t>Remove address from wallet</t>
-  </si>
-  <si>
-    <t>Generate a new address associate with wallet</t>
-  </si>
-  <si>
-    <t>List all wallet paging</t>
-  </si>
-  <si>
-    <t>Get all address from wallet by name paging</t>
-  </si>
-  <si>
-    <t>Delete wallet by name</t>
-  </si>
-  <si>
-    <t>PublicAddress</t>
-  </si>
-  <si>
     <t>Return all information about address including balance in transaction and wallet</t>
   </si>
   <si>
-    <t>Get full address</t>
-  </si>
-  <si>
-    <t>PrivateAddress</t>
-  </si>
-  <si>
-    <t>Generate private address</t>
-  </si>
-  <si>
-    <t>Return all information about address including balance in transaction and wallet, array of transaction details</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Always use HTTPS for Address Generation requests</t>
-  </si>
-  <si>
-    <t>Get address</t>
-  </si>
-  <si>
     <t>Return basic information about address</t>
   </si>
   <si>
@@ -177,19 +54,37 @@
     <t>Get transaction by hash</t>
   </si>
   <si>
-    <t xml:space="preserve">Get all unconfirmed transaction </t>
-  </si>
-  <si>
     <t>Create -&gt; sign -&gt; send -&gt; confirm</t>
   </si>
   <si>
-    <t>Push raw transaction</t>
-  </si>
-  <si>
-    <t>Decode raw transaction</t>
-  </si>
-  <si>
-    <t>Transaction propagation</t>
+    <t>Always use HTTPS for Address Generation requests</t>
+  </si>
+  <si>
+    <t>Get all by userid</t>
+  </si>
+  <si>
+    <t>Update by id</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Get address by address</t>
+  </si>
+  <si>
+    <t>Generate address</t>
+  </si>
+  <si>
+    <t>Check deposit state</t>
+  </si>
+  <si>
+    <t>Send coin</t>
+  </si>
+  <si>
+    <t>Deposit money</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
   </si>
 </sst>
 </file>
@@ -223,7 +118,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,18 +137,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.24994659260841701"/>
-        <bgColor theme="6" tint="-0.24994659260841701"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
-        <bgColor theme="6" tint="-0.24994659260841701"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -267,14 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -603,264 +484,91 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
